--- a/biology/Botanique/Mélilot_blanc/Mélilot_blanc.xlsx
+++ b/biology/Botanique/Mélilot_blanc/Mélilot_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lilot_blanc</t>
+          <t>Mélilot_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melilotus albus
 Melilotus albus, le mélilot blanc, est une espèce de plantes dicotylédones de la famille des Fabaceae  (légumineuses), sous-famille des Faboideae, originaire de l'Ancien Monde. 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lilot_blanc</t>
+          <t>Mélilot_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mélilot blanc, trèfle de Bokhara[2], mélilot de Sibérie, luzerne bâtarde[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mélilot blanc, trèfle de Bokhara, mélilot de Sibérie, luzerne bâtarde.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lilot_blanc</t>
+          <t>Mélilot_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 octobre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 octobre 2018) :
 Melilotus alba Medik.
 Melilotus albus var. annua Coe
 Melilotus argutus Rchb.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9lilot_blanc</t>
+          <t>Mélilot_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,16 +598,53 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle ou bisannuelle, assez haute aux fleurs blanches.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mélilot_blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lilot_blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Inflorescence : racème simple
 Sexualité : hermaphrodite
 Pollinisation : entomogame
-La floraison a lieu de juin à septembre[5].
+La floraison a lieu de juin à septembre.
 Graine
 Fruit : gousse
 Dissémination : épizoochore
@@ -603,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M%C3%A9lilot_blanc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mélilot_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9lilot_blanc</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélilot supporte tous types de sols et apprécie le plein soleil.
 Melilotus albus est planté en Australie sur les sols des zones arides affectés par la salinité
